--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Ivan-Trat. Termicos-3B]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Trat. Termicos', 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Trat. Termicos', 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', 'MEC-3A-Tec. Soldagem', 'MEC-3A-Tec. Soldagem', 'MEC-3A-Tec. Soldagem']</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -1,140 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -510,12 +373,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, -, -, Ivan-Trat. Termicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,12 +405,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +469,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +501,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -749,7 +612,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
     </row>
@@ -771,7 +634,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -803,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +730,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,7 +762,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -941,7 +804,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -1,3 +1,140 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -336,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -373,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -405,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -469,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -479,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Trat. Termicos', -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -501,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -511,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Trat. Termicos', -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -528,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -607,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-Tec. Soldagem']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -730,17 +867,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -762,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -799,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -969,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Trat. Termicos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Trat. Termicos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Tec. Soldagem']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3B-Trat. Termicos', -, -]</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Tec. Soldagem', -, -]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Termicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3B-Trat. Termicos', -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Tec. Soldagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Termicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Térmicos', -, -, -]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Térmicos', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Termicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Trat. Térmicos', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Térmicos', -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Soldagem</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Soldagem</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Soldagem</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-Soldagem</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Térmicos', -, -, -]</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Térmicos']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Térmicos', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Trat. Térmicos']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Trat. Térmicos', -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Térmicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['MEC-3B-Trat. Térmicos', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Térmicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEC-2NA-Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MEC-2NA-Soldagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEC-2NA-Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Térmicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Térmicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Trat. Térmicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Trat. Térmicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Soldagem', -, -, -]</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['MEC-3A-Tec. Soldagem', -, -, -]</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Soldagem', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MEC-3B-Trat. Térmicos</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -665,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MEC-3B-Trat. Térmicos</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Soldagem</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Soldagem</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
     </row>
@@ -670,14 +670,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>-</t>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>MEC-3A-Tec. Soldagem</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Ivan.xlsx
+++ b/data/teacher/Ivan.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Soldagem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Trat. Térmicos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEC-3B-Trat. Térmicos</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Soldagem</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>MEC-3A-Tec. Soldagem</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>MEC-3A-Tec. Soldagem</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>MEC-3A-Tec. Soldagem</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Soldagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
